--- a/database/metadata_windows.xlsx
+++ b/database/metadata_windows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,190 +484,202 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>w3\1hs.xlsx</t>
+          <t>m4\~$Boss.xlsx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1hs</t>
+          <t>~$Boss</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>w3\2hs.xlsx</t>
+          <t>w3\1hs.xlsx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2hs</t>
+          <t>1hs</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>w3\Additional.xlsx</t>
+          <t>w3\2hs.xlsx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Additional</t>
+          <t>2hs</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>w3\Armor.xlsx</t>
+          <t>w3\Additional.xlsx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Armor</t>
+          <t>Additional</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>w3\Arrow.xlsx</t>
+          <t>w3\Armor.xlsx</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arrow</t>
+          <t>Armor</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>w3\Bow.xlsx</t>
+          <t>w3\Arrow.xlsx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bow</t>
+          <t>Arrow</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>w3\Bowgun.xlsx</t>
+          <t>w3\Bow.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bowgun</t>
+          <t>Bow</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>w3\Dagger.xlsx</t>
+          <t>w3\Bowgun.xlsx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dagger</t>
+          <t>Bowgun</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>w3\Halberd.xlsx</t>
+          <t>w3\Dagger.xlsx</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Halberd</t>
+          <t>Dagger</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>w3\Katana.xlsx</t>
+          <t>w3\Halberd.xlsx</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>Halberd</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>w3\Knuckles.xlsx</t>
+          <t>w3\Katana.xlsx</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Knuckles</t>
+          <t>Katana</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>w3\Magic_Device.xlsx</t>
+          <t>w3\Knuckles.xlsx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Magic_Device</t>
+          <t>Knuckles</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>w3\Ninjutsu_Scroll.xlsx</t>
+          <t>w3\Magic_Device.xlsx</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ninjutsu_Scroll</t>
+          <t>Magic_Device</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>w3\Shield.xlsx</t>
+          <t>w3\Ninjutsu_Scroll.xlsx</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shield</t>
+          <t>Ninjutsu_Scroll</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>w3\Special.xlsx</t>
+          <t>w3\Shield.xlsx</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Special</t>
+          <t>Shield</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>w3\Special.xlsx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>w3\Staff.xlsx</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Staff</t>
         </is>

--- a/database/metadata_windows.xlsx
+++ b/database/metadata_windows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,202 +484,190 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>m4\~$Boss.xlsx</t>
+          <t>w3\1hs.xlsx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~$Boss</t>
+          <t>1hs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>w3\1hs.xlsx</t>
+          <t>w3\2hs.xlsx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1hs</t>
+          <t>2hs</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>w3\2hs.xlsx</t>
+          <t>w3\Additional.xlsx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2hs</t>
+          <t>Additional</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>w3\Additional.xlsx</t>
+          <t>w3\Armor.xlsx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Additional</t>
+          <t>Armor</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>w3\Armor.xlsx</t>
+          <t>w3\Arrow.xlsx</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Armor</t>
+          <t>Arrow</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>w3\Arrow.xlsx</t>
+          <t>w3\Bow.xlsx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arrow</t>
+          <t>Bow</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>w3\Bow.xlsx</t>
+          <t>w3\Bowgun.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bow</t>
+          <t>Bowgun</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>w3\Bowgun.xlsx</t>
+          <t>w3\Dagger.xlsx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bowgun</t>
+          <t>Dagger</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>w3\Dagger.xlsx</t>
+          <t>w3\Halberd.xlsx</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dagger</t>
+          <t>Halberd</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>w3\Halberd.xlsx</t>
+          <t>w3\Katana.xlsx</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Halberd</t>
+          <t>Katana</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>w3\Katana.xlsx</t>
+          <t>w3\Knuckles.xlsx</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>Knuckles</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>w3\Knuckles.xlsx</t>
+          <t>w3\Magic_Device.xlsx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Knuckles</t>
+          <t>Magic_Device</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>w3\Magic_Device.xlsx</t>
+          <t>w3\Ninjutsu_Scroll.xlsx</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Magic_Device</t>
+          <t>Ninjutsu_Scroll</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>w3\Ninjutsu_Scroll.xlsx</t>
+          <t>w3\Shield.xlsx</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ninjutsu_Scroll</t>
+          <t>Shield</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>w3\Shield.xlsx</t>
+          <t>w3\Special.xlsx</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shield</t>
+          <t>Special</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>w3\Special.xlsx</t>
+          <t>w3\Staff.xlsx</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>Special</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>w3\Staff.xlsx</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
         <is>
           <t>Staff</t>
         </is>
